--- a/Content/ExcelFiles/Kết quả Đồ Án Tốt Nghiệp.xlsx
+++ b/Content/ExcelFiles/Kết quả Đồ Án Tốt Nghiệp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF176D1B-1405-462A-9C50-12BB7353FCAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F4871B-6AE1-4699-94C7-4867A35243B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF5CD783-C16F-4672-8C0B-3D80CD7852FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="27">
   <si>
     <t>MaHoiDong</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Nhan Xet</t>
   </si>
   <si>
-    <t>HD0001</t>
-  </si>
-  <si>
     <t>0801-01</t>
   </si>
   <si>
@@ -72,24 +69,9 @@
     <t>0802-01</t>
   </si>
   <si>
-    <t>DT003</t>
-  </si>
-  <si>
-    <t>DT004</t>
-  </si>
-  <si>
-    <t>DT005</t>
-  </si>
-  <si>
     <t>DT006</t>
   </si>
   <si>
-    <t>HD0002</t>
-  </si>
-  <si>
-    <t>DT007</t>
-  </si>
-  <si>
     <t>0804-01</t>
   </si>
   <si>
@@ -99,70 +81,40 @@
     <t>0807-01</t>
   </si>
   <si>
-    <t>DT008</t>
-  </si>
-  <si>
-    <t>DT011</t>
-  </si>
-  <si>
     <t>DT012</t>
   </si>
   <si>
     <t>DT014</t>
   </si>
   <si>
-    <t>HD0003</t>
-  </si>
-  <si>
-    <t>DT015</t>
-  </si>
-  <si>
-    <t>DT016</t>
-  </si>
-  <si>
     <t>DT017</t>
   </si>
   <si>
     <t>DT018</t>
   </si>
   <si>
-    <t>DT019</t>
-  </si>
-  <si>
-    <t>HD0004</t>
-  </si>
-  <si>
-    <t>DT026</t>
-  </si>
-  <si>
-    <t>DT028</t>
-  </si>
-  <si>
     <t>DT030</t>
   </si>
   <si>
-    <t>DT032</t>
-  </si>
-  <si>
     <t>DT033</t>
   </si>
   <si>
-    <t>HD0005</t>
-  </si>
-  <si>
-    <t>DT034</t>
-  </si>
-  <si>
-    <t>DT035</t>
-  </si>
-  <si>
     <t>DT036</t>
   </si>
   <si>
     <t>DT039</t>
   </si>
   <si>
-    <t>DT041</t>
+    <t>HD0006</t>
+  </si>
+  <si>
+    <t>HD0007</t>
+  </si>
+  <si>
+    <t>0809-01</t>
+  </si>
+  <si>
+    <t>0810-01</t>
   </si>
 </sst>
 </file>
@@ -198,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,31 +173,17 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB70C1A-27F8-4211-BB94-8D21C3ADA573}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:K1048576"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,13 +525,13 @@
     </row>
     <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2" s="5">
         <v>7.64</v>
@@ -602,13 +540,13 @@
     </row>
     <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="5">
         <v>5</v>
@@ -617,13 +555,13 @@
     </row>
     <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
@@ -632,13 +570,13 @@
     </row>
     <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -647,13 +585,13 @@
     </row>
     <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="5">
         <v>9</v>
@@ -662,13 +600,13 @@
     </row>
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5">
         <v>4.6399999999999997</v>
@@ -677,13 +615,13 @@
     </row>
     <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -692,13 +630,13 @@
     </row>
     <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
@@ -707,13 +645,13 @@
     </row>
     <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5">
         <v>9</v>
@@ -722,13 +660,13 @@
     </row>
     <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -737,13 +675,13 @@
     </row>
     <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="5">
         <v>5.3</v>
@@ -752,13 +690,13 @@
     </row>
     <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -767,13 +705,13 @@
     </row>
     <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
@@ -782,13 +720,13 @@
     </row>
     <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D15" s="5">
         <v>9</v>
@@ -797,13 +735,13 @@
     </row>
     <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D16" s="5">
         <v>7</v>
@@ -812,13 +750,13 @@
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D17" s="5">
         <v>5.2</v>
@@ -827,13 +765,13 @@
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D18" s="5">
         <v>6</v>
@@ -842,13 +780,13 @@
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D19" s="5">
         <v>8</v>
@@ -857,13 +795,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D20" s="5">
         <v>6</v>
@@ -872,13 +810,13 @@
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D21" s="5">
         <v>8</v>
@@ -887,13 +825,13 @@
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5">
         <v>5.3</v>
@@ -902,13 +840,13 @@
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5">
         <v>5</v>
@@ -917,13 +855,13 @@
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="5">
         <v>8</v>
@@ -932,13 +870,13 @@
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D25" s="5">
         <v>9</v>
@@ -947,13 +885,13 @@
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="5">
         <v>7</v>
@@ -962,13 +900,13 @@
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27" s="5">
         <v>5.2</v>
@@ -977,13 +915,13 @@
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28" s="5">
         <v>6</v>
@@ -992,13 +930,13 @@
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
@@ -1007,13 +945,13 @@
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D30" s="5">
         <v>6</v>
@@ -1022,13 +960,13 @@
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D31" s="5">
         <v>9</v>
@@ -1037,13 +975,13 @@
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D32" s="5">
         <v>8</v>
@@ -1052,13 +990,13 @@
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D33" s="5">
         <v>5.3</v>
@@ -1067,13 +1005,13 @@
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
@@ -1082,13 +1020,13 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="D35" s="5">
         <v>8</v>
@@ -1097,13 +1035,13 @@
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36" s="5">
         <v>9</v>
@@ -1112,13 +1050,13 @@
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D37" s="5">
         <v>7</v>
@@ -1127,13 +1065,13 @@
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D38" s="5">
         <v>5.2</v>
@@ -1142,13 +1080,13 @@
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D39" s="5">
         <v>6</v>
@@ -1157,13 +1095,13 @@
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" s="5">
         <v>8</v>
@@ -1172,13 +1110,13 @@
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D41" s="5">
         <v>6</v>
@@ -1187,13 +1125,13 @@
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D42" s="5">
         <v>8</v>
@@ -1202,13 +1140,13 @@
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D43" s="5">
         <v>5.3</v>
@@ -1217,13 +1155,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D44" s="5">
         <v>5</v>
@@ -1232,13 +1170,13 @@
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D45" s="5">
         <v>8</v>
@@ -1247,13 +1185,13 @@
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D46" s="5">
         <v>9</v>
@@ -1262,13 +1200,13 @@
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D47" s="5">
         <v>4.7</v>
@@ -1277,13 +1215,13 @@
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="5">
         <v>6</v>
@@ -1292,13 +1230,13 @@
     </row>
     <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D49" s="5">
         <v>8</v>
@@ -1307,13 +1245,13 @@
     </row>
     <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D50" s="5">
         <v>6</v>
@@ -1322,13 +1260,13 @@
     </row>
     <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D51" s="5">
         <v>8</v>
@@ -1336,29 +1274,25 @@
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D52" s="5">
-        <v>5.3</v>
+        <v>7.64</v>
       </c>
       <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D53" s="5">
         <v>5</v>
@@ -1366,104 +1300,90 @@
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="D54" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D55" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D56" s="5">
-        <v>4.7</v>
+        <v>9</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D57" s="5">
-        <v>7.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D58" s="5">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D59" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D60" s="5">
         <v>9</v>
@@ -1471,994 +1391,147 @@
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D61" s="5">
-        <v>4.7</v>
+        <v>8</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D62" s="5">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D63" s="5">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D64" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D65" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="D66" s="5">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D67" s="5">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D68" s="5">
-        <v>4.6399999999999997</v>
+        <v>6</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D69" s="5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D70" s="5">
         <v>6</v>
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>20</v>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D71" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" s="5">
-        <v>8</v>
-      </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D73" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D74" s="5">
-        <v>5</v>
-      </c>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D75" s="5">
-        <v>8</v>
-      </c>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D76" s="5">
-        <v>9</v>
-      </c>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D77" s="5">
-        <v>7</v>
-      </c>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D78" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D79" s="5">
-        <v>6</v>
-      </c>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D80" s="5">
-        <v>8</v>
-      </c>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D81" s="5">
-        <v>6</v>
-      </c>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="5">
-        <v>8</v>
-      </c>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D83" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="5">
-        <v>5</v>
-      </c>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A85" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="5">
-        <v>8</v>
-      </c>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A86" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="5">
-        <v>9</v>
-      </c>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D87" s="5">
-        <v>7</v>
-      </c>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A88" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D88" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A89" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="5">
-        <v>6</v>
-      </c>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A90" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="5">
-        <v>2</v>
-      </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="5">
-        <v>6</v>
-      </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A92" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D92" s="5">
-        <v>9</v>
-      </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="5">
-        <v>8</v>
-      </c>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A94" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D94" s="5">
-        <v>6</v>
-      </c>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A95" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D95" s="5">
-        <v>9</v>
-      </c>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A96" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D96" s="5">
-        <v>8</v>
-      </c>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A97" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D97" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D98" s="5">
-        <v>5</v>
-      </c>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D99" s="5">
-        <v>8</v>
-      </c>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D100" s="5">
-        <v>9</v>
-      </c>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A101" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D101" s="5">
-        <v>7</v>
-      </c>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A102" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D102" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D103" s="5">
-        <v>6</v>
-      </c>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A104" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D104" s="5">
-        <v>8</v>
-      </c>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A105" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B105" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D105" s="5">
-        <v>6</v>
-      </c>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D106" s="5">
-        <v>8</v>
-      </c>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D107" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A108" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D108" s="5">
-        <v>5</v>
-      </c>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B109" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D109" s="5">
-        <v>8</v>
-      </c>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A110" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D110" s="5">
-        <v>9</v>
-      </c>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D111" s="5">
-        <v>7</v>
-      </c>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A112" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D112" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A113" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D113" s="5">
-        <v>6</v>
-      </c>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A114" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D114" s="5">
-        <v>2</v>
-      </c>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D115" s="5">
-        <v>6</v>
-      </c>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A116" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D116" s="5">
-        <v>9</v>
-      </c>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A117" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D117" s="5">
-        <v>8</v>
-      </c>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A118" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D118" s="5">
-        <v>5.3</v>
-      </c>
-      <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A119" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D119" s="5">
-        <v>5</v>
-      </c>
-      <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A120" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D120" s="5">
-        <v>8</v>
-      </c>
-      <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A121" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D121" s="5">
-        <v>9</v>
-      </c>
-      <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A122" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D122" s="5">
-        <v>7</v>
-      </c>
-      <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D123" s="5">
-        <v>5.2</v>
-      </c>
-      <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D124" s="5">
-        <v>6</v>
-      </c>
-      <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D125" s="5">
-        <v>8</v>
-      </c>
-      <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D126" s="6">
-        <v>6</v>
-      </c>
-      <c r="E126" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Content/ExcelFiles/Kết quả Đồ Án Tốt Nghiệp.xlsx
+++ b/Content/ExcelFiles/Kết quả Đồ Án Tốt Nghiệp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\NCKHExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CD1891B-8188-46B7-93A7-4ED52DC329AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{946C4CBB-F747-456E-A7E8-2F82B691EB86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF5CD783-C16F-4672-8C0B-3D80CD7852FA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="25">
   <si>
     <t>MaHoiDong</t>
   </si>
@@ -57,30 +57,9 @@
     <t>DT001</t>
   </si>
   <si>
-    <t>0805-01</t>
-  </si>
-  <si>
-    <t>0803-01</t>
-  </si>
-  <si>
-    <t>0808-01</t>
-  </si>
-  <si>
-    <t>0802-01</t>
-  </si>
-  <si>
     <t>DT006</t>
   </si>
   <si>
-    <t>0804-01</t>
-  </si>
-  <si>
-    <t>0806-01</t>
-  </si>
-  <si>
-    <t>0807-01</t>
-  </si>
-  <si>
     <t>DT012</t>
   </si>
   <si>
@@ -93,12 +72,6 @@
     <t>HD0007</t>
   </si>
   <si>
-    <t>0809-01</t>
-  </si>
-  <si>
-    <t>0810-01</t>
-  </si>
-  <si>
     <t>DT003</t>
   </si>
   <si>
@@ -115,6 +88,27 @@
   </si>
   <si>
     <t>DT011</t>
+  </si>
+  <si>
+    <t>0801-02</t>
+  </si>
+  <si>
+    <t>0801-03</t>
+  </si>
+  <si>
+    <t>0801-04</t>
+  </si>
+  <si>
+    <t>0801-05</t>
+  </si>
+  <si>
+    <t>0801-06</t>
+  </si>
+  <si>
+    <t>0801-07</t>
+  </si>
+  <si>
+    <t>0801-08</t>
   </si>
 </sst>
 </file>
@@ -507,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB70C1A-27F8-4211-BB94-8D21C3ADA573}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,7 +526,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
@@ -547,10 +541,10 @@
     </row>
     <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -562,10 +556,10 @@
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
@@ -577,10 +571,10 @@
     </row>
     <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>6</v>
@@ -592,10 +586,10 @@
     </row>
     <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
@@ -607,13 +601,13 @@
     </row>
     <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>4.6399999999999997</v>
@@ -622,13 +616,13 @@
     </row>
     <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D8" s="5">
         <v>2</v>
@@ -637,13 +631,13 @@
     </row>
     <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D9" s="5">
         <v>6</v>
@@ -652,13 +646,13 @@
     </row>
     <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D10" s="5">
         <v>9</v>
@@ -667,13 +661,13 @@
     </row>
     <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D11" s="5">
         <v>8</v>
@@ -682,13 +676,13 @@
     </row>
     <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D12" s="5">
         <v>5.3</v>
@@ -697,13 +691,13 @@
     </row>
     <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13" s="5">
         <v>5</v>
@@ -712,13 +706,13 @@
     </row>
     <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D14" s="5">
         <v>8</v>
@@ -727,13 +721,13 @@
     </row>
     <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15" s="5">
         <v>9</v>
@@ -743,13 +737,13 @@
     </row>
     <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D16" s="5">
         <v>7</v>
@@ -758,13 +752,13 @@
     </row>
     <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D17" s="5">
         <v>5.2</v>
@@ -773,13 +767,13 @@
     </row>
     <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D18" s="5">
         <v>6</v>
@@ -788,13 +782,13 @@
     </row>
     <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D19" s="5">
         <v>8</v>
@@ -803,13 +797,13 @@
     </row>
     <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D20" s="5">
         <v>6</v>
@@ -818,13 +812,13 @@
     </row>
     <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D21" s="5">
         <v>8</v>
@@ -833,13 +827,13 @@
     </row>
     <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D22" s="5">
         <v>5.3</v>
@@ -848,28 +842,28 @@
     </row>
     <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D23" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D24" s="5">
         <v>8</v>
@@ -878,13 +872,13 @@
     </row>
     <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D25" s="5">
         <v>9</v>
@@ -893,13 +887,13 @@
     </row>
     <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D26" s="5">
         <v>7</v>
@@ -908,13 +902,13 @@
     </row>
     <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D27" s="5">
         <v>5.2</v>
@@ -923,13 +917,13 @@
     </row>
     <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D28" s="5">
         <v>6</v>
@@ -938,13 +932,13 @@
     </row>
     <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D29" s="5">
         <v>2</v>
@@ -953,13 +947,13 @@
     </row>
     <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D30" s="5">
         <v>6</v>
@@ -968,13 +962,13 @@
     </row>
     <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D31" s="5">
         <v>9</v>
@@ -983,13 +977,13 @@
     </row>
     <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C32" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D32" s="5">
         <v>8</v>
@@ -998,13 +992,13 @@
     </row>
     <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D33" s="5">
         <v>5.3</v>
@@ -1013,13 +1007,13 @@
     </row>
     <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D34" s="5">
         <v>5</v>
@@ -1028,13 +1022,13 @@
     </row>
     <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D35" s="5">
         <v>8</v>
@@ -1043,13 +1037,13 @@
     </row>
     <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D36" s="5">
         <v>9</v>
@@ -1058,13 +1052,13 @@
     </row>
     <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D37" s="5">
         <v>7</v>
@@ -1073,13 +1067,13 @@
     </row>
     <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D38" s="5">
         <v>5.2</v>
@@ -1088,13 +1082,13 @@
     </row>
     <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D39" s="5">
         <v>6</v>
@@ -1103,13 +1097,13 @@
     </row>
     <row r="40" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D40" s="5">
         <v>8</v>
@@ -1118,13 +1112,13 @@
     </row>
     <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D41" s="5">
         <v>6</v>
@@ -1133,13 +1127,13 @@
     </row>
     <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D42" s="5">
         <v>8</v>
@@ -1148,13 +1142,13 @@
     </row>
     <row r="43" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D43" s="5">
         <v>5.3</v>
@@ -1163,13 +1157,13 @@
     </row>
     <row r="44" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D44" s="5">
         <v>5</v>
@@ -1178,13 +1172,13 @@
     </row>
     <row r="45" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D45" s="5">
         <v>8</v>
@@ -1193,13 +1187,13 @@
     </row>
     <row r="46" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D46" s="5">
         <v>9</v>
@@ -1208,13 +1202,13 @@
     </row>
     <row r="47" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D47" s="5">
         <v>4.7</v>
@@ -1223,68 +1217,68 @@
     </row>
     <row r="48" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D48" s="5">
         <v>6</v>
       </c>
       <c r="E48" s="3"/>
     </row>
-    <row r="49" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D49" s="5">
         <v>8</v>
       </c>
       <c r="E49" s="3"/>
     </row>
-    <row r="50" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D50" s="5">
         <v>6</v>
       </c>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D51" s="5">
         <v>8</v>
       </c>
       <c r="E51" s="3"/>
     </row>
-    <row r="52" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>6</v>
@@ -1294,10 +1288,10 @@
       </c>
       <c r="E52" s="3"/>
     </row>
-    <row r="53" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>6</v>
@@ -1307,143 +1301,144 @@
       </c>
       <c r="E53" s="3"/>
     </row>
-    <row r="54" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D54" s="5">
         <v>7</v>
       </c>
       <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D55" s="5">
         <v>10</v>
       </c>
       <c r="E55" s="3"/>
     </row>
-    <row r="56" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D56" s="5">
         <v>9</v>
       </c>
       <c r="E56" s="3"/>
     </row>
-    <row r="57" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D57" s="5">
         <v>4.6399999999999997</v>
       </c>
       <c r="E57" s="3"/>
     </row>
-    <row r="58" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D58" s="5">
         <v>7</v>
       </c>
       <c r="E58" s="3"/>
     </row>
-    <row r="59" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D59" s="5">
         <v>6</v>
       </c>
       <c r="E59" s="3"/>
     </row>
-    <row r="60" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="D60" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E60" s="3"/>
     </row>
-    <row r="61" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D61" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E61" s="3"/>
     </row>
-    <row r="62" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D62" s="5">
         <v>5.3</v>
       </c>
       <c r="E62" s="3"/>
     </row>
-    <row r="63" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5">
         <v>5</v>
       </c>
       <c r="E63" s="3"/>
     </row>
-    <row r="64" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D64" s="5">
         <v>5</v>
@@ -1453,10 +1448,10 @@
     <row r="65" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D65" s="5">
         <v>7</v>
@@ -1466,10 +1461,10 @@
     <row r="66" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D66" s="5">
         <v>7</v>
@@ -1479,10 +1474,10 @@
     <row r="67" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D67" s="5">
         <v>5.2</v>
@@ -1492,10 +1487,10 @@
     <row r="68" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D68" s="5">
         <v>6</v>
@@ -1505,10 +1500,10 @@
     <row r="69" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D69" s="5">
         <v>8</v>
@@ -1518,23 +1513,23 @@
     <row r="70" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="5">
         <v>6</v>
       </c>
       <c r="E70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
-      <c r="B71" s="3" t="s">
-        <v>5</v>
+      <c r="B71" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="5">
         <v>7</v>
